--- a/Code/Results/Cases/Case_2_220/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_220/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013199851184932</v>
+        <v>1.058827272464505</v>
       </c>
       <c r="D2">
-        <v>1.031263384375881</v>
+        <v>1.059959359295507</v>
       </c>
       <c r="E2">
-        <v>1.025089198445258</v>
+        <v>1.063457380140247</v>
       </c>
       <c r="F2">
-        <v>1.034833106462447</v>
+        <v>1.072421245231305</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05238517017468</v>
+        <v>1.044036366699587</v>
       </c>
       <c r="J2">
-        <v>1.034992799446417</v>
+        <v>1.063816471772534</v>
       </c>
       <c r="K2">
-        <v>1.042303697312073</v>
+        <v>1.062687442571183</v>
       </c>
       <c r="L2">
-        <v>1.036209725459938</v>
+        <v>1.066175967479244</v>
       </c>
       <c r="M2">
-        <v>1.045827587887994</v>
+        <v>1.075115804479646</v>
       </c>
       <c r="N2">
-        <v>1.036462607936964</v>
+        <v>1.065327213183905</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021490640984679</v>
+        <v>1.060443490833719</v>
       </c>
       <c r="D3">
-        <v>1.037568683859605</v>
+        <v>1.061190878046065</v>
       </c>
       <c r="E3">
-        <v>1.031506387642295</v>
+        <v>1.064781522748067</v>
       </c>
       <c r="F3">
-        <v>1.041775082216233</v>
+        <v>1.073831823864521</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055098780751322</v>
+        <v>1.044442690264865</v>
       </c>
       <c r="J3">
-        <v>1.041412113906578</v>
+        <v>1.065082511300405</v>
       </c>
       <c r="K3">
-        <v>1.047742414583137</v>
+        <v>1.063732238804386</v>
       </c>
       <c r="L3">
-        <v>1.041751404889282</v>
+        <v>1.067313847316746</v>
       </c>
       <c r="M3">
-        <v>1.051899952381761</v>
+        <v>1.076341661068609</v>
       </c>
       <c r="N3">
-        <v>1.042891038559965</v>
+        <v>1.066595050633123</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026683515161431</v>
+        <v>1.061487391272947</v>
       </c>
       <c r="D4">
-        <v>1.041520626560635</v>
+        <v>1.061985926517937</v>
       </c>
       <c r="E4">
-        <v>1.035539569943864</v>
+        <v>1.065637419781649</v>
       </c>
       <c r="F4">
-        <v>1.046133408889455</v>
+        <v>1.07474331930633</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056782765822051</v>
+        <v>1.044703118963766</v>
       </c>
       <c r="J4">
-        <v>1.045428435400889</v>
+        <v>1.06589945575311</v>
       </c>
       <c r="K4">
-        <v>1.051142486505218</v>
+        <v>1.064405904229036</v>
       </c>
       <c r="L4">
-        <v>1.045227181187279</v>
+        <v>1.068048674804747</v>
       </c>
       <c r="M4">
-        <v>1.055705189088252</v>
+        <v>1.077133099185782</v>
       </c>
       <c r="N4">
-        <v>1.046913063691476</v>
+        <v>1.067413155240656</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028827936567414</v>
+        <v>1.061925801570217</v>
       </c>
       <c r="D5">
-        <v>1.043153096939857</v>
+        <v>1.06231973387656</v>
       </c>
       <c r="E5">
-        <v>1.037208216265553</v>
+        <v>1.065997026643344</v>
       </c>
       <c r="F5">
-        <v>1.047935502750079</v>
+        <v>1.075126221195211</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057474332527752</v>
+        <v>1.0448120098</v>
       </c>
       <c r="J5">
-        <v>1.047085863388384</v>
+        <v>1.066242363570668</v>
       </c>
       <c r="K5">
-        <v>1.052544911053036</v>
+        <v>1.064688547430348</v>
       </c>
       <c r="L5">
-        <v>1.046663512694437</v>
+        <v>1.068357253121175</v>
       </c>
       <c r="M5">
-        <v>1.057276887048342</v>
+        <v>1.077465401614874</v>
       </c>
       <c r="N5">
-        <v>1.048572845416822</v>
+        <v>1.067756550026647</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029185794827764</v>
+        <v>1.061999386745809</v>
       </c>
       <c r="D6">
-        <v>1.043425546797062</v>
+        <v>1.06237575650648</v>
       </c>
       <c r="E6">
-        <v>1.037486856336613</v>
+        <v>1.066057393945775</v>
       </c>
       <c r="F6">
-        <v>1.048236364819983</v>
+        <v>1.075190495252838</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057589511889957</v>
+        <v>1.0448302583313</v>
       </c>
       <c r="J6">
-        <v>1.047362384032266</v>
+        <v>1.066299908103057</v>
       </c>
       <c r="K6">
-        <v>1.052778845719738</v>
+        <v>1.064735971461321</v>
       </c>
       <c r="L6">
-        <v>1.046903260005316</v>
+        <v>1.068409044817754</v>
       </c>
       <c r="M6">
-        <v>1.057539184271298</v>
+        <v>1.077521172316916</v>
       </c>
       <c r="N6">
-        <v>1.048849758751737</v>
+        <v>1.067814176278872</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026712317843913</v>
+        <v>1.061493251069679</v>
       </c>
       <c r="D7">
-        <v>1.041542551210658</v>
+        <v>1.061990388553001</v>
       </c>
       <c r="E7">
-        <v>1.035561970145372</v>
+        <v>1.065642225691618</v>
       </c>
       <c r="F7">
-        <v>1.04615760470343</v>
+        <v>1.074748436793098</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056792069888387</v>
+        <v>1.044704576296258</v>
       </c>
       <c r="J7">
-        <v>1.045450701638653</v>
+        <v>1.065904039798615</v>
       </c>
       <c r="K7">
-        <v>1.051161329771554</v>
+        <v>1.064409683136074</v>
       </c>
       <c r="L7">
-        <v>1.045246469458813</v>
+        <v>1.068052799383775</v>
       </c>
       <c r="M7">
-        <v>1.055726298221048</v>
+        <v>1.07713754106127</v>
       </c>
       <c r="N7">
-        <v>1.046935361549851</v>
+        <v>1.067417745796031</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016038901296474</v>
+        <v>1.05937388044584</v>
       </c>
       <c r="D8">
-        <v>1.033421879812812</v>
+        <v>1.060375938790504</v>
       </c>
       <c r="E8">
-        <v>1.027283617308377</v>
+        <v>1.063905072764069</v>
       </c>
       <c r="F8">
-        <v>1.037208000439404</v>
+        <v>1.07289821844183</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053317661461379</v>
+        <v>1.044174202803833</v>
       </c>
       <c r="J8">
-        <v>1.037191862947358</v>
+        <v>1.064244809714697</v>
       </c>
       <c r="K8">
-        <v>1.044167389612333</v>
+        <v>1.06304103425505</v>
       </c>
       <c r="L8">
-        <v>1.038106274311287</v>
+        <v>1.06656082433905</v>
       </c>
       <c r="M8">
-        <v>1.047906492233894</v>
+        <v>1.075530459395647</v>
       </c>
       <c r="N8">
-        <v>1.038664794360312</v>
+        <v>1.065756159415078</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9957904045784494</v>
+        <v>1.055624286389638</v>
       </c>
       <c r="D9">
-        <v>1.018045447188318</v>
+        <v>1.057516801455672</v>
       </c>
       <c r="E9">
-        <v>1.011701926317682</v>
+        <v>1.060836732914596</v>
       </c>
       <c r="F9">
-        <v>1.020322260567018</v>
+        <v>1.069628067381169</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046602729051289</v>
+        <v>1.043220426891146</v>
       </c>
       <c r="J9">
-        <v>1.021492695305233</v>
+        <v>1.06130333800961</v>
       </c>
       <c r="K9">
-        <v>1.030852380247051</v>
+        <v>1.060610750091685</v>
       </c>
       <c r="L9">
-        <v>1.024607958655868</v>
+        <v>1.063920363278827</v>
       </c>
       <c r="M9">
-        <v>1.03309400861824</v>
+        <v>1.072684712005929</v>
       </c>
       <c r="N9">
-        <v>1.022943332099416</v>
+        <v>1.062810510482778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9811232418960445</v>
+        <v>1.053113868460232</v>
       </c>
       <c r="D10">
-        <v>1.006939484059046</v>
+        <v>1.055600718267628</v>
       </c>
       <c r="E10">
-        <v>1.000516119920944</v>
+        <v>1.058785913796267</v>
       </c>
       <c r="F10">
-        <v>1.008168258681002</v>
+        <v>1.06744092407737</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041660835311467</v>
+        <v>1.042571502808724</v>
       </c>
       <c r="J10">
-        <v>1.010106352930452</v>
+        <v>1.05932999776765</v>
       </c>
       <c r="K10">
-        <v>1.021184564263313</v>
+        <v>1.058977717100004</v>
       </c>
       <c r="L10">
-        <v>1.01487606191181</v>
+        <v>1.06215202876633</v>
       </c>
       <c r="M10">
-        <v>1.022391582389924</v>
+        <v>1.070777825041792</v>
       </c>
       <c r="N10">
-        <v>1.011540819812431</v>
+        <v>1.060834367871329</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9744414442918863</v>
+        <v>1.052024158438887</v>
       </c>
       <c r="D11">
-        <v>1.001890846813404</v>
+        <v>1.054768574005567</v>
       </c>
       <c r="E11">
-        <v>0.9954487483342174</v>
+        <v>1.057896553413974</v>
       </c>
       <c r="F11">
-        <v>1.002653490564005</v>
+        <v>1.066492099198257</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039392701741204</v>
+        <v>1.042287371983355</v>
       </c>
       <c r="J11">
-        <v>1.004917546529564</v>
+        <v>1.05847248483343</v>
       </c>
       <c r="K11">
-        <v>1.016777192412426</v>
+        <v>1.0582674659612</v>
       </c>
       <c r="L11">
-        <v>1.010457008033143</v>
+        <v>1.061384336732891</v>
       </c>
       <c r="M11">
-        <v>1.017525538832865</v>
+        <v>1.069949726087418</v>
       </c>
       <c r="N11">
-        <v>1.006344644711289</v>
+        <v>1.059975637170385</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9719044020615638</v>
+        <v>1.051618976786898</v>
       </c>
       <c r="D12">
-        <v>0.9999758456317721</v>
+        <v>1.05445910005913</v>
       </c>
       <c r="E12">
-        <v>0.9935294119528196</v>
+        <v>1.057565996263662</v>
       </c>
       <c r="F12">
-        <v>1.000563259283517</v>
+        <v>1.066139387886373</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038529148225527</v>
+        <v>1.04218135761783</v>
       </c>
       <c r="J12">
-        <v>1.00294732176877</v>
+        <v>1.058153500077215</v>
       </c>
       <c r="K12">
-        <v>1.015103508415795</v>
+        <v>1.058003168458441</v>
       </c>
       <c r="L12">
-        <v>1.008781637101512</v>
+        <v>1.061098875576436</v>
       </c>
       <c r="M12">
-        <v>1.015679676084724</v>
+        <v>1.069641764204074</v>
       </c>
       <c r="N12">
-        <v>1.004371622005347</v>
+        <v>1.059656199419228</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9724511970081924</v>
+        <v>1.051705908589462</v>
       </c>
       <c r="D13">
-        <v>1.000388482500582</v>
+        <v>1.054525500525662</v>
       </c>
       <c r="E13">
-        <v>0.993942855593838</v>
+        <v>1.057636911477425</v>
       </c>
       <c r="F13">
-        <v>1.001013582262229</v>
+        <v>1.066215058264107</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03871536856415</v>
+        <v>1.042204119632853</v>
       </c>
       <c r="J13">
-        <v>1.003371953305543</v>
+        <v>1.058221944635508</v>
       </c>
       <c r="K13">
-        <v>1.015464234672191</v>
+        <v>1.058059882945755</v>
       </c>
       <c r="L13">
-        <v>1.009142600876801</v>
+        <v>1.061160121929843</v>
       </c>
       <c r="M13">
-        <v>1.016077420626794</v>
+        <v>1.069707839900841</v>
       </c>
       <c r="N13">
-        <v>1.004796856567609</v>
+        <v>1.059724741176644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.974232890470903</v>
+        <v>1.051990674528285</v>
       </c>
       <c r="D14">
-        <v>1.001733385734048</v>
+        <v>1.054743000559548</v>
       </c>
       <c r="E14">
-        <v>0.9952908738108146</v>
+        <v>1.05786923376588</v>
       </c>
       <c r="F14">
-        <v>1.002481588996269</v>
+        <v>1.066462949640692</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039321761270327</v>
+        <v>1.042278618523293</v>
       </c>
       <c r="J14">
-        <v>1.004755587257196</v>
+        <v>1.058446127018175</v>
       </c>
       <c r="K14">
-        <v>1.016639612861151</v>
+        <v>1.05824562885304</v>
       </c>
       <c r="L14">
-        <v>1.010319233396554</v>
+        <v>1.06136074671051</v>
       </c>
       <c r="M14">
-        <v>1.017373765079213</v>
+        <v>1.069924277436398</v>
       </c>
       <c r="N14">
-        <v>1.006182455438178</v>
+        <v>1.059949241924008</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9753231696067539</v>
+        <v>1.052166072897272</v>
       </c>
       <c r="D15">
-        <v>1.002556642541943</v>
+        <v>1.054876959117495</v>
       </c>
       <c r="E15">
-        <v>0.9961164055883712</v>
+        <v>1.058012347262635</v>
       </c>
       <c r="F15">
-        <v>1.003380409576319</v>
+        <v>1.066615646937379</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039692529810766</v>
+        <v>1.042324456633908</v>
       </c>
       <c r="J15">
-        <v>1.005602277656237</v>
+        <v>1.058584191126693</v>
       </c>
       <c r="K15">
-        <v>1.017358844393317</v>
+        <v>1.058360009397539</v>
       </c>
       <c r="L15">
-        <v>1.0110395971</v>
+        <v>1.06148431748205</v>
       </c>
       <c r="M15">
-        <v>1.018167281850508</v>
+        <v>1.070057582605549</v>
       </c>
       <c r="N15">
-        <v>1.007030348234703</v>
+        <v>1.060087502099396</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9815592763812169</v>
+        <v>1.053186131402214</v>
       </c>
       <c r="D16">
-        <v>1.007269191845425</v>
+        <v>1.055655892289247</v>
       </c>
       <c r="E16">
-        <v>1.000847424559972</v>
+        <v>1.05884490880255</v>
       </c>
       <c r="F16">
-        <v>1.00852862289293</v>
+        <v>1.067503856290663</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041808514035823</v>
+        <v>1.042590293138208</v>
       </c>
       <c r="J16">
-        <v>1.010444940269726</v>
+        <v>1.05938684318514</v>
       </c>
       <c r="K16">
-        <v>1.021472131694478</v>
+        <v>1.059024787413201</v>
       </c>
       <c r="L16">
-        <v>1.015164762523471</v>
+        <v>1.062202935407318</v>
       </c>
       <c r="M16">
-        <v>1.022709348605012</v>
+        <v>1.070832731918441</v>
       </c>
       <c r="N16">
-        <v>1.011879887984563</v>
+        <v>1.060891294015832</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9853788726228025</v>
+        <v>1.053825260663578</v>
       </c>
       <c r="D17">
-        <v>1.010158631326461</v>
+        <v>1.056143830368063</v>
       </c>
       <c r="E17">
-        <v>1.003752848620764</v>
+        <v>1.059366788076707</v>
       </c>
       <c r="F17">
-        <v>1.011687886020322</v>
+        <v>1.068060524735172</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043100287022036</v>
+        <v>1.0427562016414</v>
       </c>
       <c r="J17">
-        <v>1.013410750643897</v>
+        <v>1.059889504427697</v>
       </c>
       <c r="K17">
-        <v>1.023990856957683</v>
+        <v>1.059440940085713</v>
       </c>
       <c r="L17">
-        <v>1.017695395222509</v>
+        <v>1.062653167371182</v>
       </c>
       <c r="M17">
-        <v>1.025494041425313</v>
+        <v>1.071318313387269</v>
       </c>
       <c r="N17">
-        <v>1.014849910149649</v>
+        <v>1.06139466909501</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9875752659461376</v>
+        <v>1.054197795930849</v>
       </c>
       <c r="D18">
-        <v>1.011821143646529</v>
+        <v>1.056428198837311</v>
       </c>
       <c r="E18">
-        <v>1.005426193966871</v>
+        <v>1.059671062435565</v>
       </c>
       <c r="F18">
-        <v>1.013506610471116</v>
+        <v>1.068385049104633</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043841515512168</v>
+        <v>1.042852670299658</v>
       </c>
       <c r="J18">
-        <v>1.015116024190071</v>
+        <v>1.060182405177214</v>
       </c>
       <c r="K18">
-        <v>1.025438901468251</v>
+        <v>1.059683372713301</v>
       </c>
       <c r="L18">
-        <v>1.019151916991597</v>
+        <v>1.062915588378592</v>
       </c>
       <c r="M18">
-        <v>1.027096205018599</v>
+        <v>1.071601313394813</v>
       </c>
       <c r="N18">
-        <v>1.016557605379857</v>
+        <v>1.061687985797188</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9883189858787704</v>
+        <v>1.054324777421271</v>
       </c>
       <c r="D19">
-        <v>1.0123842456146</v>
+        <v>1.056525121077027</v>
       </c>
       <c r="E19">
-        <v>1.005993239053085</v>
+        <v>1.059774790473906</v>
       </c>
       <c r="F19">
-        <v>1.014122784733419</v>
+        <v>1.068495674792695</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044092229410612</v>
+        <v>1.042885512333658</v>
       </c>
       <c r="J19">
-        <v>1.015693413331078</v>
+        <v>1.060282227328407</v>
       </c>
       <c r="K19">
-        <v>1.02592916508652</v>
+        <v>1.059765984937809</v>
       </c>
       <c r="L19">
-        <v>1.019645324398553</v>
+        <v>1.063005034857478</v>
       </c>
       <c r="M19">
-        <v>1.027638852803529</v>
+        <v>1.07169777006229</v>
       </c>
       <c r="N19">
-        <v>1.017135814479671</v>
+        <v>1.061787949707285</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9849723621718788</v>
+        <v>1.053756714915977</v>
       </c>
       <c r="D20">
-        <v>1.009851010211255</v>
+        <v>1.056091503858018</v>
       </c>
       <c r="E20">
-        <v>1.003443354756368</v>
+        <v>1.059310808765936</v>
       </c>
       <c r="F20">
-        <v>1.01135143816034</v>
+        <v>1.068000817219351</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042962970288175</v>
+        <v>1.042738432590926</v>
       </c>
       <c r="J20">
-        <v>1.013095122518826</v>
+        <v>1.059835604010127</v>
       </c>
       <c r="K20">
-        <v>1.023722825272081</v>
+        <v>1.059396322151666</v>
       </c>
       <c r="L20">
-        <v>1.017425925946585</v>
+        <v>1.062604881619107</v>
       </c>
       <c r="M20">
-        <v>1.025197580339997</v>
+        <v>1.071266239087668</v>
       </c>
       <c r="N20">
-        <v>1.014533833796438</v>
+        <v>1.061340692132664</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.97370979562924</v>
+        <v>1.051906829603681</v>
       </c>
       <c r="D21">
-        <v>1.001338474036175</v>
+        <v>1.054678962732431</v>
       </c>
       <c r="E21">
-        <v>0.9948949702146316</v>
+        <v>1.057800826474974</v>
       </c>
       <c r="F21">
-        <v>1.002050486098454</v>
+        <v>1.06638995948253</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039143791094796</v>
+        <v>1.042256693611335</v>
       </c>
       <c r="J21">
-        <v>1.004349360539228</v>
+        <v>1.058380123838206</v>
       </c>
       <c r="K21">
-        <v>1.01629453290925</v>
+        <v>1.05819094458374</v>
       </c>
       <c r="L21">
-        <v>1.00997370872253</v>
+        <v>1.0613016762205</v>
       </c>
       <c r="M21">
-        <v>1.016993115245408</v>
+        <v>1.06986055222793</v>
       </c>
       <c r="N21">
-        <v>1.005775651831675</v>
+        <v>1.059883145011953</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9663063019247833</v>
+        <v>1.050741327274853</v>
       </c>
       <c r="D22">
-        <v>0.9957542769452451</v>
+        <v>1.053788648172895</v>
       </c>
       <c r="E22">
-        <v>0.98930356963124</v>
+        <v>1.056850227115983</v>
       </c>
       <c r="F22">
-        <v>0.9959583560082061</v>
+        <v>1.065375551047981</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036619531513493</v>
+        <v>1.041951052230498</v>
       </c>
       <c r="J22">
-        <v>0.9986000372390228</v>
+        <v>1.05746230346058</v>
       </c>
       <c r="K22">
-        <v>1.011410314271924</v>
+        <v>1.057430303135253</v>
       </c>
       <c r="L22">
-        <v>1.005089945306469</v>
+        <v>1.06048052446532</v>
       </c>
       <c r="M22">
-        <v>1.011610306104879</v>
+        <v>1.068974601902286</v>
       </c>
       <c r="N22">
-        <v>1.000018163832927</v>
+        <v>1.058964021224116</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.970263621495486</v>
+        <v>1.051359414144945</v>
       </c>
       <c r="D23">
-        <v>0.9987379472360955</v>
+        <v>1.054260831340501</v>
       </c>
       <c r="E23">
-        <v>0.9922895108741784</v>
+        <v>1.057354275360182</v>
       </c>
       <c r="F23">
-        <v>0.9992125378374576</v>
+        <v>1.065913462494656</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037970021265111</v>
+        <v>1.042113340607369</v>
       </c>
       <c r="J23">
-        <v>1.001673125942513</v>
+        <v>1.057949116576282</v>
       </c>
       <c r="K23">
-        <v>1.014021054908111</v>
+        <v>1.057833798834938</v>
       </c>
       <c r="L23">
-        <v>1.007698883866986</v>
+        <v>1.060916003113007</v>
       </c>
       <c r="M23">
-        <v>1.014486437052022</v>
+        <v>1.069444466339718</v>
       </c>
       <c r="N23">
-        <v>1.003095616674865</v>
+        <v>1.059451525670279</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9851561437293475</v>
+        <v>1.05378768858617</v>
       </c>
       <c r="D24">
-        <v>1.009990081288134</v>
+        <v>1.056115148689768</v>
       </c>
       <c r="E24">
-        <v>1.003583267401306</v>
+        <v>1.059336103805682</v>
       </c>
       <c r="F24">
-        <v>1.011503538404992</v>
+        <v>1.06802779700401</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043025055504365</v>
+        <v>1.0427464625962</v>
       </c>
       <c r="J24">
-        <v>1.01323781710868</v>
+        <v>1.059859960194353</v>
       </c>
       <c r="K24">
-        <v>1.023844002164837</v>
+        <v>1.059416484009388</v>
       </c>
       <c r="L24">
-        <v>1.017547747708352</v>
+        <v>1.0626267004645</v>
       </c>
       <c r="M24">
-        <v>1.025331606377371</v>
+        <v>1.071289769937489</v>
       </c>
       <c r="N24">
-        <v>1.014676731028977</v>
+        <v>1.061365082905466</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001214820418408</v>
+        <v>1.056595485338559</v>
       </c>
       <c r="D25">
-        <v>1.022160171651418</v>
+        <v>1.058257688760585</v>
       </c>
       <c r="E25">
-        <v>1.015860350889432</v>
+        <v>1.061630871114318</v>
       </c>
       <c r="F25">
-        <v>1.02483381757861</v>
+        <v>1.070474689115292</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048415293922373</v>
+        <v>1.043469292454112</v>
       </c>
       <c r="J25">
-        <v>1.025701370060812</v>
+        <v>1.062065923277499</v>
       </c>
       <c r="K25">
-        <v>1.034423950465476</v>
+        <v>1.061241273111823</v>
       </c>
       <c r="L25">
-        <v>1.02821734526526</v>
+        <v>1.064604374361861</v>
       </c>
       <c r="M25">
-        <v>1.037058475143918</v>
+        <v>1.073422089917419</v>
       </c>
       <c r="N25">
-        <v>1.027157983655889</v>
+        <v>1.063574178709217</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_220/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_220/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058827272464505</v>
+        <v>1.01319985118493</v>
       </c>
       <c r="D2">
-        <v>1.059959359295507</v>
+        <v>1.031263384375879</v>
       </c>
       <c r="E2">
-        <v>1.063457380140247</v>
+        <v>1.025089198445256</v>
       </c>
       <c r="F2">
-        <v>1.072421245231305</v>
+        <v>1.034833106462445</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044036366699587</v>
+        <v>1.052385170174678</v>
       </c>
       <c r="J2">
-        <v>1.063816471772534</v>
+        <v>1.034992799446414</v>
       </c>
       <c r="K2">
-        <v>1.062687442571183</v>
+        <v>1.042303697312071</v>
       </c>
       <c r="L2">
-        <v>1.066175967479244</v>
+        <v>1.036209725459936</v>
       </c>
       <c r="M2">
-        <v>1.075115804479646</v>
+        <v>1.045827587887991</v>
       </c>
       <c r="N2">
-        <v>1.065327213183905</v>
+        <v>1.036462607936962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.060443490833719</v>
+        <v>1.021490640984681</v>
       </c>
       <c r="D3">
-        <v>1.061190878046065</v>
+        <v>1.037568683859606</v>
       </c>
       <c r="E3">
-        <v>1.064781522748067</v>
+        <v>1.031506387642296</v>
       </c>
       <c r="F3">
-        <v>1.073831823864521</v>
+        <v>1.041775082216235</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044442690264865</v>
+        <v>1.055098780751323</v>
       </c>
       <c r="J3">
-        <v>1.065082511300405</v>
+        <v>1.04141211390658</v>
       </c>
       <c r="K3">
-        <v>1.063732238804386</v>
+        <v>1.047742414583138</v>
       </c>
       <c r="L3">
-        <v>1.067313847316746</v>
+        <v>1.041751404889282</v>
       </c>
       <c r="M3">
-        <v>1.076341661068609</v>
+        <v>1.051899952381762</v>
       </c>
       <c r="N3">
-        <v>1.066595050633123</v>
+        <v>1.042891038559967</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.061487391272947</v>
+        <v>1.02668351516143</v>
       </c>
       <c r="D4">
-        <v>1.061985926517937</v>
+        <v>1.041520626560634</v>
       </c>
       <c r="E4">
-        <v>1.065637419781649</v>
+        <v>1.035539569943864</v>
       </c>
       <c r="F4">
-        <v>1.07474331930633</v>
+        <v>1.046133408889455</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044703118963766</v>
+        <v>1.056782765822051</v>
       </c>
       <c r="J4">
-        <v>1.06589945575311</v>
+        <v>1.045428435400888</v>
       </c>
       <c r="K4">
-        <v>1.064405904229036</v>
+        <v>1.051142486505217</v>
       </c>
       <c r="L4">
-        <v>1.068048674804747</v>
+        <v>1.045227181187279</v>
       </c>
       <c r="M4">
-        <v>1.077133099185782</v>
+        <v>1.055705189088251</v>
       </c>
       <c r="N4">
-        <v>1.067413155240656</v>
+        <v>1.046913063691475</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.061925801570217</v>
+        <v>1.028827936567412</v>
       </c>
       <c r="D5">
-        <v>1.06231973387656</v>
+        <v>1.043153096939855</v>
       </c>
       <c r="E5">
-        <v>1.065997026643344</v>
+        <v>1.037208216265551</v>
       </c>
       <c r="F5">
-        <v>1.075126221195211</v>
+        <v>1.047935502750077</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0448120098</v>
+        <v>1.057474332527751</v>
       </c>
       <c r="J5">
-        <v>1.066242363570668</v>
+        <v>1.047085863388381</v>
       </c>
       <c r="K5">
-        <v>1.064688547430348</v>
+        <v>1.052544911053034</v>
       </c>
       <c r="L5">
-        <v>1.068357253121175</v>
+        <v>1.046663512694435</v>
       </c>
       <c r="M5">
-        <v>1.077465401614874</v>
+        <v>1.05727688704834</v>
       </c>
       <c r="N5">
-        <v>1.067756550026647</v>
+        <v>1.04857284541682</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.061999386745809</v>
+        <v>1.029185794827765</v>
       </c>
       <c r="D6">
-        <v>1.06237575650648</v>
+        <v>1.043425546797063</v>
       </c>
       <c r="E6">
-        <v>1.066057393945775</v>
+        <v>1.037486856336614</v>
       </c>
       <c r="F6">
-        <v>1.075190495252838</v>
+        <v>1.048236364819984</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0448302583313</v>
+        <v>1.057589511889957</v>
       </c>
       <c r="J6">
-        <v>1.066299908103057</v>
+        <v>1.047362384032268</v>
       </c>
       <c r="K6">
-        <v>1.064735971461321</v>
+        <v>1.052778845719739</v>
       </c>
       <c r="L6">
-        <v>1.068409044817754</v>
+        <v>1.046903260005317</v>
       </c>
       <c r="M6">
-        <v>1.077521172316916</v>
+        <v>1.057539184271299</v>
       </c>
       <c r="N6">
-        <v>1.067814176278872</v>
+        <v>1.048849758751738</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.061493251069679</v>
+        <v>1.026712317843913</v>
       </c>
       <c r="D7">
-        <v>1.061990388553001</v>
+        <v>1.041542551210658</v>
       </c>
       <c r="E7">
-        <v>1.065642225691618</v>
+        <v>1.035561970145371</v>
       </c>
       <c r="F7">
-        <v>1.074748436793098</v>
+        <v>1.04615760470343</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044704576296258</v>
+        <v>1.056792069888387</v>
       </c>
       <c r="J7">
-        <v>1.065904039798615</v>
+        <v>1.045450701638653</v>
       </c>
       <c r="K7">
-        <v>1.064409683136074</v>
+        <v>1.051161329771555</v>
       </c>
       <c r="L7">
-        <v>1.068052799383775</v>
+        <v>1.045246469458814</v>
       </c>
       <c r="M7">
-        <v>1.07713754106127</v>
+        <v>1.055726298221048</v>
       </c>
       <c r="N7">
-        <v>1.067417745796031</v>
+        <v>1.046935361549851</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05937388044584</v>
+        <v>1.016038901296472</v>
       </c>
       <c r="D8">
-        <v>1.060375938790504</v>
+        <v>1.03342187981281</v>
       </c>
       <c r="E8">
-        <v>1.063905072764069</v>
+        <v>1.027283617308376</v>
       </c>
       <c r="F8">
-        <v>1.07289821844183</v>
+        <v>1.037208000439402</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044174202803833</v>
+        <v>1.053317661461378</v>
       </c>
       <c r="J8">
-        <v>1.064244809714697</v>
+        <v>1.037191862947356</v>
       </c>
       <c r="K8">
-        <v>1.06304103425505</v>
+        <v>1.044167389612331</v>
       </c>
       <c r="L8">
-        <v>1.06656082433905</v>
+        <v>1.038106274311286</v>
       </c>
       <c r="M8">
-        <v>1.075530459395647</v>
+        <v>1.047906492233893</v>
       </c>
       <c r="N8">
-        <v>1.065756159415078</v>
+        <v>1.038664794360311</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055624286389638</v>
+        <v>0.9957904045784494</v>
       </c>
       <c r="D9">
-        <v>1.057516801455672</v>
+        <v>1.018045447188318</v>
       </c>
       <c r="E9">
-        <v>1.060836732914596</v>
+        <v>1.011701926317682</v>
       </c>
       <c r="F9">
-        <v>1.069628067381169</v>
+        <v>1.020322260567018</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043220426891146</v>
+        <v>1.046602729051289</v>
       </c>
       <c r="J9">
-        <v>1.06130333800961</v>
+        <v>1.021492695305233</v>
       </c>
       <c r="K9">
-        <v>1.060610750091685</v>
+        <v>1.030852380247051</v>
       </c>
       <c r="L9">
-        <v>1.063920363278827</v>
+        <v>1.024607958655868</v>
       </c>
       <c r="M9">
-        <v>1.072684712005929</v>
+        <v>1.03309400861824</v>
       </c>
       <c r="N9">
-        <v>1.062810510482778</v>
+        <v>1.022943332099416</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053113868460232</v>
+        <v>0.9811232418960448</v>
       </c>
       <c r="D10">
-        <v>1.055600718267628</v>
+        <v>1.006939484059046</v>
       </c>
       <c r="E10">
-        <v>1.058785913796267</v>
+        <v>1.000516119920944</v>
       </c>
       <c r="F10">
-        <v>1.06744092407737</v>
+        <v>1.008168258681002</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042571502808724</v>
+        <v>1.041660835311467</v>
       </c>
       <c r="J10">
-        <v>1.05932999776765</v>
+        <v>1.010106352930452</v>
       </c>
       <c r="K10">
-        <v>1.058977717100004</v>
+        <v>1.021184564263314</v>
       </c>
       <c r="L10">
-        <v>1.06215202876633</v>
+        <v>1.01487606191181</v>
       </c>
       <c r="M10">
-        <v>1.070777825041792</v>
+        <v>1.022391582389924</v>
       </c>
       <c r="N10">
-        <v>1.060834367871329</v>
+        <v>1.011540819812432</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052024158438887</v>
+        <v>0.9744414442918859</v>
       </c>
       <c r="D11">
-        <v>1.054768574005567</v>
+        <v>1.001890846813404</v>
       </c>
       <c r="E11">
-        <v>1.057896553413974</v>
+        <v>0.995448748334218</v>
       </c>
       <c r="F11">
-        <v>1.066492099198257</v>
+        <v>1.002653490564006</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042287371983355</v>
+        <v>1.039392701741204</v>
       </c>
       <c r="J11">
-        <v>1.05847248483343</v>
+        <v>1.004917546529563</v>
       </c>
       <c r="K11">
-        <v>1.0582674659612</v>
+        <v>1.016777192412426</v>
       </c>
       <c r="L11">
-        <v>1.061384336732891</v>
+        <v>1.010457008033143</v>
       </c>
       <c r="M11">
-        <v>1.069949726087418</v>
+        <v>1.017525538832865</v>
       </c>
       <c r="N11">
-        <v>1.059975637170385</v>
+        <v>1.006344644711289</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.051618976786898</v>
+        <v>0.9719044020615649</v>
       </c>
       <c r="D12">
-        <v>1.05445910005913</v>
+        <v>0.9999758456317732</v>
       </c>
       <c r="E12">
-        <v>1.057565996263662</v>
+        <v>0.9935294119528204</v>
       </c>
       <c r="F12">
-        <v>1.066139387886373</v>
+        <v>1.000563259283518</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04218135761783</v>
+        <v>1.038529148225528</v>
       </c>
       <c r="J12">
-        <v>1.058153500077215</v>
+        <v>1.002947321768771</v>
       </c>
       <c r="K12">
-        <v>1.058003168458441</v>
+        <v>1.015103508415796</v>
       </c>
       <c r="L12">
-        <v>1.061098875576436</v>
+        <v>1.008781637101513</v>
       </c>
       <c r="M12">
-        <v>1.069641764204074</v>
+        <v>1.015679676084725</v>
       </c>
       <c r="N12">
-        <v>1.059656199419228</v>
+        <v>1.004371622005348</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.051705908589462</v>
+        <v>0.9724511970081902</v>
       </c>
       <c r="D13">
-        <v>1.054525500525662</v>
+        <v>1.00038848250058</v>
       </c>
       <c r="E13">
-        <v>1.057636911477425</v>
+        <v>0.993942855593836</v>
       </c>
       <c r="F13">
-        <v>1.066215058264107</v>
+        <v>1.001013582262227</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042204119632853</v>
+        <v>1.038715368564149</v>
       </c>
       <c r="J13">
-        <v>1.058221944635508</v>
+        <v>1.003371953305541</v>
       </c>
       <c r="K13">
-        <v>1.058059882945755</v>
+        <v>1.015464234672189</v>
       </c>
       <c r="L13">
-        <v>1.061160121929843</v>
+        <v>1.009142600876799</v>
       </c>
       <c r="M13">
-        <v>1.069707839900841</v>
+        <v>1.016077420626792</v>
       </c>
       <c r="N13">
-        <v>1.059724741176644</v>
+        <v>1.004796856567607</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.051990674528285</v>
+        <v>0.9742328904709026</v>
       </c>
       <c r="D14">
-        <v>1.054743000559548</v>
+        <v>1.001733385734048</v>
       </c>
       <c r="E14">
-        <v>1.05786923376588</v>
+        <v>0.9952908738108145</v>
       </c>
       <c r="F14">
-        <v>1.066462949640692</v>
+        <v>1.002481588996269</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042278618523293</v>
+        <v>1.039321761270327</v>
       </c>
       <c r="J14">
-        <v>1.058446127018175</v>
+        <v>1.004755587257196</v>
       </c>
       <c r="K14">
-        <v>1.05824562885304</v>
+        <v>1.016639612861151</v>
       </c>
       <c r="L14">
-        <v>1.06136074671051</v>
+        <v>1.010319233396554</v>
       </c>
       <c r="M14">
-        <v>1.069924277436398</v>
+        <v>1.017373765079213</v>
       </c>
       <c r="N14">
-        <v>1.059949241924008</v>
+        <v>1.006182455438178</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052166072897272</v>
+        <v>0.9753231696067548</v>
       </c>
       <c r="D15">
-        <v>1.054876959117495</v>
+        <v>1.002556642541944</v>
       </c>
       <c r="E15">
-        <v>1.058012347262635</v>
+        <v>0.9961164055883714</v>
       </c>
       <c r="F15">
-        <v>1.066615646937379</v>
+        <v>1.00338040957632</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042324456633908</v>
+        <v>1.039692529810766</v>
       </c>
       <c r="J15">
-        <v>1.058584191126693</v>
+        <v>1.005602277656238</v>
       </c>
       <c r="K15">
-        <v>1.058360009397539</v>
+        <v>1.017358844393318</v>
       </c>
       <c r="L15">
-        <v>1.06148431748205</v>
+        <v>1.0110395971</v>
       </c>
       <c r="M15">
-        <v>1.070057582605549</v>
+        <v>1.018167281850509</v>
       </c>
       <c r="N15">
-        <v>1.060087502099396</v>
+        <v>1.007030348234703</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053186131402214</v>
+        <v>0.9815592763812155</v>
       </c>
       <c r="D16">
-        <v>1.055655892289247</v>
+        <v>1.007269191845424</v>
       </c>
       <c r="E16">
-        <v>1.05884490880255</v>
+        <v>1.000847424559971</v>
       </c>
       <c r="F16">
-        <v>1.067503856290663</v>
+        <v>1.008528622892929</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042590293138208</v>
+        <v>1.041808514035823</v>
       </c>
       <c r="J16">
-        <v>1.05938684318514</v>
+        <v>1.010444940269725</v>
       </c>
       <c r="K16">
-        <v>1.059024787413201</v>
+        <v>1.021472131694477</v>
       </c>
       <c r="L16">
-        <v>1.062202935407318</v>
+        <v>1.01516476252347</v>
       </c>
       <c r="M16">
-        <v>1.070832731918441</v>
+        <v>1.022709348605011</v>
       </c>
       <c r="N16">
-        <v>1.060891294015832</v>
+        <v>1.011879887984563</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053825260663578</v>
+        <v>0.9853788726228022</v>
       </c>
       <c r="D17">
-        <v>1.056143830368063</v>
+        <v>1.010158631326461</v>
       </c>
       <c r="E17">
-        <v>1.059366788076707</v>
+        <v>1.003752848620764</v>
       </c>
       <c r="F17">
-        <v>1.068060524735172</v>
+        <v>1.011687886020322</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0427562016414</v>
+        <v>1.043100287022036</v>
       </c>
       <c r="J17">
-        <v>1.059889504427697</v>
+        <v>1.013410750643897</v>
       </c>
       <c r="K17">
-        <v>1.059440940085713</v>
+        <v>1.023990856957683</v>
       </c>
       <c r="L17">
-        <v>1.062653167371182</v>
+        <v>1.017695395222509</v>
       </c>
       <c r="M17">
-        <v>1.071318313387269</v>
+        <v>1.025494041425312</v>
       </c>
       <c r="N17">
-        <v>1.06139466909501</v>
+        <v>1.014849910149649</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.054197795930849</v>
+        <v>0.9875752659461369</v>
       </c>
       <c r="D18">
-        <v>1.056428198837311</v>
+        <v>1.011821143646529</v>
       </c>
       <c r="E18">
-        <v>1.059671062435565</v>
+        <v>1.005426193966871</v>
       </c>
       <c r="F18">
-        <v>1.068385049104633</v>
+        <v>1.013506610471115</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042852670299658</v>
+        <v>1.043841515512167</v>
       </c>
       <c r="J18">
-        <v>1.060182405177214</v>
+        <v>1.015116024190071</v>
       </c>
       <c r="K18">
-        <v>1.059683372713301</v>
+        <v>1.025438901468251</v>
       </c>
       <c r="L18">
-        <v>1.062915588378592</v>
+        <v>1.019151916991597</v>
       </c>
       <c r="M18">
-        <v>1.071601313394813</v>
+        <v>1.027096205018599</v>
       </c>
       <c r="N18">
-        <v>1.061687985797188</v>
+        <v>1.016557605379856</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054324777421271</v>
+        <v>0.9883189858787699</v>
       </c>
       <c r="D19">
-        <v>1.056525121077027</v>
+        <v>1.0123842456146</v>
       </c>
       <c r="E19">
-        <v>1.059774790473906</v>
+        <v>1.005993239053085</v>
       </c>
       <c r="F19">
-        <v>1.068495674792695</v>
+        <v>1.014122784733419</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042885512333658</v>
+        <v>1.044092229410612</v>
       </c>
       <c r="J19">
-        <v>1.060282227328407</v>
+        <v>1.015693413331078</v>
       </c>
       <c r="K19">
-        <v>1.059765984937809</v>
+        <v>1.02592916508652</v>
       </c>
       <c r="L19">
-        <v>1.063005034857478</v>
+        <v>1.019645324398553</v>
       </c>
       <c r="M19">
-        <v>1.07169777006229</v>
+        <v>1.027638852803529</v>
       </c>
       <c r="N19">
-        <v>1.061787949707285</v>
+        <v>1.017135814479671</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053756714915977</v>
+        <v>0.9849723621718782</v>
       </c>
       <c r="D20">
-        <v>1.056091503858018</v>
+        <v>1.009851010211254</v>
       </c>
       <c r="E20">
-        <v>1.059310808765936</v>
+        <v>1.003443354756368</v>
       </c>
       <c r="F20">
-        <v>1.068000817219351</v>
+        <v>1.01135143816034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042738432590926</v>
+        <v>1.042962970288175</v>
       </c>
       <c r="J20">
-        <v>1.059835604010127</v>
+        <v>1.013095122518826</v>
       </c>
       <c r="K20">
-        <v>1.059396322151666</v>
+        <v>1.02372282527208</v>
       </c>
       <c r="L20">
-        <v>1.062604881619107</v>
+        <v>1.017425925946585</v>
       </c>
       <c r="M20">
-        <v>1.071266239087668</v>
+        <v>1.025197580339997</v>
       </c>
       <c r="N20">
-        <v>1.061340692132664</v>
+        <v>1.014533833796437</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051906829603681</v>
+        <v>0.9737097956292422</v>
       </c>
       <c r="D21">
-        <v>1.054678962732431</v>
+        <v>1.001338474036177</v>
       </c>
       <c r="E21">
-        <v>1.057800826474974</v>
+        <v>0.994894970214633</v>
       </c>
       <c r="F21">
-        <v>1.06638995948253</v>
+        <v>1.002050486098455</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042256693611335</v>
+        <v>1.039143791094797</v>
       </c>
       <c r="J21">
-        <v>1.058380123838206</v>
+        <v>1.00434936053923</v>
       </c>
       <c r="K21">
-        <v>1.05819094458374</v>
+        <v>1.016294532909251</v>
       </c>
       <c r="L21">
-        <v>1.0613016762205</v>
+        <v>1.009973708722531</v>
       </c>
       <c r="M21">
-        <v>1.06986055222793</v>
+        <v>1.01699311524541</v>
       </c>
       <c r="N21">
-        <v>1.059883145011953</v>
+        <v>1.005775651831677</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.050741327274853</v>
+        <v>0.9663063019247855</v>
       </c>
       <c r="D22">
-        <v>1.053788648172895</v>
+        <v>0.9957542769452469</v>
       </c>
       <c r="E22">
-        <v>1.056850227115983</v>
+        <v>0.9893035696312418</v>
       </c>
       <c r="F22">
-        <v>1.065375551047981</v>
+        <v>0.9959583560082084</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041951052230498</v>
+        <v>1.036619531513493</v>
       </c>
       <c r="J22">
-        <v>1.05746230346058</v>
+        <v>0.9986000372390249</v>
       </c>
       <c r="K22">
-        <v>1.057430303135253</v>
+        <v>1.011410314271927</v>
       </c>
       <c r="L22">
-        <v>1.06048052446532</v>
+        <v>1.005089945306471</v>
       </c>
       <c r="M22">
-        <v>1.068974601902286</v>
+        <v>1.011610306104881</v>
       </c>
       <c r="N22">
-        <v>1.058964021224116</v>
+        <v>1.000018163832929</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.051359414144945</v>
+        <v>0.9702636214954854</v>
       </c>
       <c r="D23">
-        <v>1.054260831340501</v>
+        <v>0.9987379472360949</v>
       </c>
       <c r="E23">
-        <v>1.057354275360182</v>
+        <v>0.9922895108741785</v>
       </c>
       <c r="F23">
-        <v>1.065913462494656</v>
+        <v>0.9992125378374577</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042113340607369</v>
+        <v>1.037970021265111</v>
       </c>
       <c r="J23">
-        <v>1.057949116576282</v>
+        <v>1.001673125942512</v>
       </c>
       <c r="K23">
-        <v>1.057833798834938</v>
+        <v>1.014021054908111</v>
       </c>
       <c r="L23">
-        <v>1.060916003113007</v>
+        <v>1.007698883866986</v>
       </c>
       <c r="M23">
-        <v>1.069444466339718</v>
+        <v>1.014486437052022</v>
       </c>
       <c r="N23">
-        <v>1.059451525670279</v>
+        <v>1.003095616674864</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.05378768858617</v>
+        <v>0.9851561437293433</v>
       </c>
       <c r="D24">
-        <v>1.056115148689768</v>
+        <v>1.00999008128813</v>
       </c>
       <c r="E24">
-        <v>1.059336103805682</v>
+        <v>1.003583267401303</v>
       </c>
       <c r="F24">
-        <v>1.06802779700401</v>
+        <v>1.011503538404989</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0427464625962</v>
+        <v>1.043025055504363</v>
       </c>
       <c r="J24">
-        <v>1.059859960194353</v>
+        <v>1.013237817108677</v>
       </c>
       <c r="K24">
-        <v>1.059416484009388</v>
+        <v>1.023844002164834</v>
       </c>
       <c r="L24">
-        <v>1.0626267004645</v>
+        <v>1.017547747708349</v>
       </c>
       <c r="M24">
-        <v>1.071289769937489</v>
+        <v>1.025331606377368</v>
       </c>
       <c r="N24">
-        <v>1.061365082905466</v>
+        <v>1.014676731028973</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056595485338559</v>
+        <v>1.001214820418409</v>
       </c>
       <c r="D25">
-        <v>1.058257688760585</v>
+        <v>1.022160171651419</v>
       </c>
       <c r="E25">
-        <v>1.061630871114318</v>
+        <v>1.015860350889433</v>
       </c>
       <c r="F25">
-        <v>1.070474689115292</v>
+        <v>1.024833817578611</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043469292454112</v>
+        <v>1.048415293922373</v>
       </c>
       <c r="J25">
-        <v>1.062065923277499</v>
+        <v>1.025701370060812</v>
       </c>
       <c r="K25">
-        <v>1.061241273111823</v>
+        <v>1.034423950465478</v>
       </c>
       <c r="L25">
-        <v>1.064604374361861</v>
+        <v>1.028217345265261</v>
       </c>
       <c r="M25">
-        <v>1.073422089917419</v>
+        <v>1.037058475143919</v>
       </c>
       <c r="N25">
-        <v>1.063574178709217</v>
+        <v>1.027157983655891</v>
       </c>
     </row>
   </sheetData>
